--- a/results/logistic/dilemma/confidence/0.15/avg_scores.xlsx
+++ b/results/logistic/dilemma/confidence/0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="225">
   <si>
     <t>negative</t>
   </si>
@@ -43,181 +43,214 @@
     <t>name</t>
   </si>
   <si>
+    <t>foreign</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>serious</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>sad</t>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>sucks</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>artificial</t>
+  </si>
+  <si>
     <t>guilty</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>warfare</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>false</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>concerning</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>pu</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>few</t>
   </si>
   <si>
     <t>mad</t>
   </si>
   <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>stomach</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>access</t>
-  </si>
-  <si>
-    <t>controlled</t>
-  </si>
-  <si>
-    <t>dea</t>
-  </si>
-  <si>
-    <t>mit</t>
+    <t>past</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>least</t>
   </si>
   <si>
     <t>weird</t>
   </si>
   <si>
-    <t>black</t>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>chilling</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>inc</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>extremely</t>
+  </si>
+  <si>
+    <t>finally</t>
   </si>
   <si>
     <t>shocked</t>
   </si>
   <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>silicon</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>bias</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>few</t>
+    <t>illegal</t>
   </si>
   <si>
     <t>late</t>
@@ -229,490 +262,433 @@
     <t>study</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
     <t>faster</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>inc</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>extremely</t>
-  </si>
-  <si>
-    <t>completely</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>blowing</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>con</t>
-  </si>
-  <si>
     <t>minutes</t>
   </si>
   <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>algorithms</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>drama</t>
+  </si>
+  <si>
     <t>software</t>
   </si>
   <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>algorithms</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>drama</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>customers</t>
+    <t>side</t>
+  </si>
+  <si>
+    <t>ins</t>
+  </si>
+  <si>
+    <t>spreads</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>ve</t>
   </si>
   <si>
     <t>drugs</t>
   </si>
   <si>
-    <t>because</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>some</t>
+    <t>this</t>
+  </si>
+  <si>
+    <t>re</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>watched</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
     <t>t</t>
   </si>
   <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>must</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>m</t>
+    <t>’</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>nt</t>
+  </si>
+  <si>
+    <t>doubt</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>engagement</t>
+  </si>
+  <si>
+    <t>arthur</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>discussion</t>
+  </si>
+  <si>
+    <t>wonder</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>democracy</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>wasn</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>critics</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>polar</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>isn</t>
+  </si>
+  <si>
+    <t>yourself</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>said</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>paying</t>
+  </si>
+  <si>
+    <t>such</t>
+  </si>
+  <si>
+    <t>opener</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>dilemma</t>
   </si>
   <si>
     <t>that</t>
   </si>
   <si>
-    <t>but</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>i</t>
+    <t>there</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>magic</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>credits</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>advanced</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>democracy</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>wondered</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>usage</t>
-  </si>
-  <si>
-    <t>mani</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>gotten</t>
-  </si>
-  <si>
-    <t>isn</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>ti</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>critics</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>yesterday</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>opener</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>po</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>before</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>aware</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>such</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>then</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>how</t>
-  </si>
-  <si>
-    <t>by</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>just</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>about</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>'</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>to</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q126"/>
+  <dimension ref="A1:Q119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1081,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1139,13 +1115,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1157,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K3">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1181,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1189,13 +1165,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.8768115942028986</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C4">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1207,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="K4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1231,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1239,13 +1215,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.6666666666666666</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1257,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K5">
-        <v>0.8</v>
+        <v>0.8315789473684211</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1281,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1289,13 +1265,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.6428571428571429</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1307,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="K6">
-        <v>0.7894736842105263</v>
+        <v>0.82</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1331,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1339,13 +1315,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.6382978723404256</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1357,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="K7">
-        <v>0.7333333333333333</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1381,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1389,13 +1365,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.5833333333333334</v>
+        <v>0.7</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1407,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K8">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1431,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1439,13 +1415,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.5769230769230769</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1457,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K9">
-        <v>0.6666666666666666</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1481,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1489,13 +1465,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.5555555555555556</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1507,19 +1483,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K10">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1531,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1539,13 +1515,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.5454545454545454</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1557,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="K11">
-        <v>0.6333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L11">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1581,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1589,49 +1565,49 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.5384615384615384</v>
+        <v>0.5625</v>
       </c>
       <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>7</v>
       </c>
-      <c r="D12">
+      <c r="J12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="L12">
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>7</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K12">
-        <v>0.6216216216216216</v>
-      </c>
-      <c r="L12">
-        <v>23</v>
-      </c>
-      <c r="M12">
-        <v>23</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1639,13 +1615,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.5333333333333333</v>
+        <v>0.5625</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1657,19 +1633,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K13">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1681,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1689,13 +1665,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.5294117647058824</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1707,19 +1683,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="K14">
-        <v>0.5555555555555556</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1731,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1739,13 +1715,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1757,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K15">
-        <v>0.5384615384615384</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L15">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1781,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1789,13 +1765,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1807,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K16">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1831,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1842,10 +1818,10 @@
         <v>0.5</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1857,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="K17">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1881,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1892,10 +1868,10 @@
         <v>0.5</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1907,19 +1883,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="K18">
         <v>0.5</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1931,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1939,13 +1915,13 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1957,10 +1933,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K19">
         <v>0.5</v>
@@ -1989,13 +1965,13 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.4888888888888889</v>
+        <v>0.475</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2007,19 +1983,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="K20">
-        <v>0.4482758620689655</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="L20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2031,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2060,16 +2036,16 @@
         <v>9</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K21">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2081,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2089,13 +2065,13 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.4358974358974359</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2107,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K22">
         <v>0.4</v>
@@ -2139,13 +2115,13 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.4347826086956522</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2157,19 +2133,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K23">
         <v>0.4</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2181,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2189,13 +2165,13 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.4285714285714285</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2207,19 +2183,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="K24">
-        <v>0.34375</v>
+        <v>0.375</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2231,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2239,13 +2215,13 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.425</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2257,19 +2233,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K25">
         <v>0.3333333333333333</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2281,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2289,13 +2265,13 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.4242424242424243</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2307,19 +2283,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K26">
         <v>0.3333333333333333</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2331,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2339,13 +2315,13 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.4166666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2357,19 +2333,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="K27">
-        <v>0.3333333333333333</v>
+        <v>0.296875</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2381,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2389,49 +2365,49 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.4166666666666667</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>23</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K28">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>5</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>7</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K28">
-        <v>0.2615384615384616</v>
-      </c>
-      <c r="L28">
-        <v>17</v>
-      </c>
-      <c r="M28">
-        <v>17</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2439,13 +2415,13 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.3846153846153846</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2457,31 +2433,31 @@
         <v>0</v>
       </c>
       <c r="H29">
+        <v>23</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K29">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>8</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K29">
-        <v>0.2592592592592592</v>
-      </c>
-      <c r="L29">
-        <v>7</v>
-      </c>
-      <c r="M29">
-        <v>7</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2489,13 +2465,13 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2507,19 +2483,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="K30">
-        <v>0.25</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2531,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2539,13 +2515,13 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.3428571428571429</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2557,19 +2533,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K31">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2581,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2610,16 +2586,16 @@
         <v>8</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K32">
-        <v>0.2131147540983606</v>
+        <v>0.25</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2631,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2660,16 +2636,16 @@
         <v>2</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K33">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2681,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2689,13 +2665,13 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.3333333333333333</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2707,19 +2683,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="K34">
-        <v>0.2</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2731,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2739,13 +2715,13 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.3205128205128205</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C35">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2757,19 +2733,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K35">
         <v>0.2</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2781,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2789,13 +2765,13 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.3181818181818182</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2807,10 +2783,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K36">
         <v>0.2</v>
@@ -2839,13 +2815,13 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.3</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2857,19 +2833,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K37">
-        <v>0.1739130434782609</v>
+        <v>0.2</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2881,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2889,49 +2865,49 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.2857142857142857</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C38">
+        <v>22</v>
+      </c>
+      <c r="D38">
+        <v>22</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>56</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K38">
+        <v>0.2</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>4</v>
-      </c>
-      <c r="D38">
-        <v>4</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>10</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K38">
-        <v>0.1707317073170732</v>
-      </c>
-      <c r="L38">
-        <v>7</v>
-      </c>
-      <c r="M38">
-        <v>7</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2939,13 +2915,13 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2957,19 +2933,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="K39">
-        <v>0.1666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2981,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2992,10 +2968,10 @@
         <v>0.25</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3007,19 +2983,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K40">
-        <v>0.1538461538461539</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3031,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3039,13 +3015,13 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.25</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3057,19 +3033,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K41">
-        <v>0.1428571428571428</v>
+        <v>0.1875</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3081,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3089,13 +3065,13 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.25</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3107,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K42">
-        <v>0.1428571428571428</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3131,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3139,13 +3115,13 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.25</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3157,19 +3133,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="K43">
-        <v>0.1428571428571428</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3181,21 +3157,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B44">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3207,19 +3183,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K44">
-        <v>0.1428571428571428</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3231,21 +3207,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2307692307692308</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3257,19 +3233,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="K45">
-        <v>0.1333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3281,21 +3257,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2307692307692308</v>
+        <v>0.2</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3307,19 +3283,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K46">
-        <v>0.1267605633802817</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L46">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M46">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3331,21 +3307,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3357,19 +3333,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K47">
-        <v>0.122040072859745</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L47">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3381,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>964</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3389,13 +3365,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2142857142857143</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3407,19 +3383,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K48">
-        <v>0.1212121212121212</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M48">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3431,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3439,13 +3415,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2142857142857143</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3457,19 +3433,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K49">
-        <v>0.1111111111111111</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3481,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3489,13 +3465,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3507,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K50">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -3531,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3539,7 +3515,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -3557,10 +3533,10 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K51">
         <v>0.1111111111111111</v>
@@ -3589,7 +3565,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -3607,10 +3583,10 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K52">
         <v>0.1111111111111111</v>
@@ -3639,13 +3615,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3657,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K53">
-        <v>0.103448275862069</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3681,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3689,13 +3665,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1666666666666667</v>
+        <v>0.16</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3707,13 +3683,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="K54">
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -3731,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3739,13 +3715,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1666666666666667</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3757,19 +3733,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K55">
-        <v>0.09836065573770492</v>
+        <v>0.1083788706739526</v>
       </c>
       <c r="L55">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="M55">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3781,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>55</v>
+        <v>979</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3789,7 +3765,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -3807,19 +3783,19 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K56">
-        <v>0.09677419354838709</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3831,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3839,7 +3815,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -3857,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K57">
-        <v>0.09090909090909091</v>
+        <v>0.1</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -3881,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3889,13 +3865,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3907,10 +3883,10 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="K58">
         <v>0.09090909090909091</v>
@@ -3939,13 +3915,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3957,19 +3933,19 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="K59">
-        <v>0.08823529411764706</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3981,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3989,13 +3965,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1578947368421053</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4007,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="K60">
         <v>0.08333333333333333</v>
@@ -4039,7 +4015,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1428571428571428</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4057,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K61">
         <v>0.08333333333333333</v>
@@ -4089,13 +4065,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1428571428571428</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4107,13 +4083,13 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="K62">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L62">
         <v>1</v>
@@ -4131,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4139,13 +4115,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4157,19 +4133,19 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K63">
-        <v>0.07142857142857142</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4181,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4189,13 +4165,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4207,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K64">
-        <v>0.07142857142857142</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -4231,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4239,13 +4215,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.125</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4257,13 +4233,13 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="K65">
-        <v>0.07142857142857142</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -4281,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4289,13 +4265,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.125</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C66">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4307,19 +4283,19 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="K66">
-        <v>0.06666666666666667</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4331,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4339,13 +4315,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1230769230769231</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C67">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4357,19 +4333,19 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K67">
-        <v>0.06666666666666667</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4381,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4389,13 +4365,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.12</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4407,13 +4383,13 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="K68">
-        <v>0.0625</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -4431,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4439,13 +4415,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1111111111111111</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4457,19 +4433,19 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K69">
-        <v>0.0625</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4481,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4489,7 +4465,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1111111111111111</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4507,19 +4483,19 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="K70">
-        <v>0.05555555555555555</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4531,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4539,7 +4515,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1111111111111111</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4557,13 +4533,13 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="K71">
-        <v>0.05263157894736842</v>
+        <v>0.0625</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -4581,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4589,13 +4565,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1052631578947368</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4607,19 +4583,19 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="K72">
-        <v>0.04761904761904762</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4631,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4639,13 +4615,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1052631578947368</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4657,19 +4633,19 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="K73">
-        <v>0.04347826086956522</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4681,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>22</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4689,7 +4665,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4707,13 +4683,13 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="K74">
-        <v>0.04166666666666666</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -4731,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4739,7 +4715,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4757,19 +4733,19 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="K75">
-        <v>0.0410958904109589</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="L75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4781,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -4789,7 +4765,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.09090909090909091</v>
+        <v>0.0625</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4807,19 +4783,19 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K76">
-        <v>0.04</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="L76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4831,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>48</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -4839,13 +4815,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08333333333333333</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4857,19 +4833,19 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="K77">
-        <v>0.03703703703703703</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="L77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4881,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -4889,7 +4865,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07142857142857142</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4907,13 +4883,13 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K78">
-        <v>0.03571428571428571</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -4931,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -4939,7 +4915,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.07142857142857142</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4957,19 +4933,19 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="K79">
-        <v>0.03478260869565217</v>
+        <v>0.04</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4981,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>111</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -4989,7 +4965,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.06666666666666667</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -5007,13 +4983,13 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K80">
-        <v>0.03333333333333333</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -5031,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -5039,13 +5015,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.06666666666666667</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5057,19 +5033,19 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K81">
-        <v>0.03157894736842105</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="L81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -5081,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -5089,7 +5065,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.06666666666666667</v>
+        <v>0.04</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -5107,13 +5083,13 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="K82">
-        <v>0.02083333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -5131,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -5139,13 +5115,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0625</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -5157,13 +5133,13 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="K83">
-        <v>0.01923076923076923</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -5181,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -5189,7 +5165,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.05263157894736842</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -5207,13 +5183,13 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K84">
-        <v>0.01886792452830189</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="L84">
         <v>1</v>
@@ -5231,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -5239,13 +5215,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.04854368932038835</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -5257,19 +5233,19 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K85">
-        <v>0.01694915254237288</v>
+        <v>0.01558441558441558</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5281,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>58</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -5289,7 +5265,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04761904761904762</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5307,13 +5283,13 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K86">
-        <v>0.01639344262295082</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -5331,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -5339,7 +5315,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.04761904761904762</v>
+        <v>0.025</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -5357,31 +5333,31 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>217</v>
+        <v>103</v>
       </c>
       <c r="K87">
-        <v>0.01351351351351351</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="L87">
         <v>1</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O87">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -5389,13 +5365,13 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04545454545454546</v>
+        <v>0.024</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -5407,19 +5383,19 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K88">
-        <v>0.0101010101010101</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="L88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5431,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>196</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -5439,13 +5415,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.0425531914893617</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5457,19 +5433,19 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="K89">
-        <v>0.009900990099009901</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="L89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5481,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>300</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -5489,7 +5465,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.04166666666666666</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5507,13 +5483,13 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K90">
-        <v>0.009708737864077669</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="L90">
         <v>1</v>
@@ -5531,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -5539,13 +5515,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.04</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5557,19 +5533,19 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="K91">
-        <v>0.009345794392523364</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5581,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>106</v>
+        <v>342</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -5589,7 +5565,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.03448275862068965</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -5607,19 +5583,19 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="K92">
-        <v>0.008695652173913044</v>
+        <v>0.006349206349206349</v>
       </c>
       <c r="L92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5631,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>342</v>
+        <v>313</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -5639,13 +5615,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.03225806451612903</v>
+        <v>0.016</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5657,31 +5633,31 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>223</v>
+        <v>120</v>
       </c>
       <c r="K93">
-        <v>0.005194805194805195</v>
+        <v>0.00625</v>
       </c>
       <c r="L93">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M93">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O93">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
-        <v>383</v>
+        <v>954</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -5689,7 +5665,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.03125</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -5707,19 +5683,19 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K94">
-        <v>0.003968253968253968</v>
+        <v>0.005454545454545455</v>
       </c>
       <c r="L94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5731,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>251</v>
+        <v>547</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -5739,7 +5715,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.02272727272727273</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -5757,31 +5733,31 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="K95">
-        <v>0.003597122302158274</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="L95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N95">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="O95">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95">
-        <v>277</v>
+        <v>366</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -5789,13 +5765,13 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.0198019801980198</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5807,13 +5783,13 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="K96">
-        <v>0.00353356890459364</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -5831,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>282</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -5839,31 +5815,31 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.01886792452830189</v>
+        <v>0.01255230125523013</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>104</v>
+        <v>236</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="K97">
-        <v>0.003389830508474576</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -5881,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>294</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -5889,49 +5865,49 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.01851851851851852</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="K98">
-        <v>0.002808988764044944</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="L98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O98">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="P98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
-        <v>710</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -5939,13 +5915,13 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.01739130434782609</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5957,31 +5933,31 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="K99">
-        <v>0.00273224043715847</v>
+        <v>0.00353356890459364</v>
       </c>
       <c r="L99">
         <v>1</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N99">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O99">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>365</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -5989,49 +5965,49 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.01666666666666667</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>105</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K100">
+        <v>0.003420752565564424</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
         <v>4</v>
       </c>
-      <c r="D100">
-        <v>4</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>236</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K100">
-        <v>0.002728512960436562</v>
-      </c>
-      <c r="L100">
-        <v>2</v>
-      </c>
-      <c r="M100">
-        <v>2</v>
-      </c>
       <c r="N100">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O100">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100">
-        <v>731</v>
+        <v>874</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -6039,13 +6015,13 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.01639344262295082</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -6057,13 +6033,13 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>60</v>
+        <v>446</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="K101">
-        <v>0.002085505735140772</v>
+        <v>0.003305785123966942</v>
       </c>
       <c r="L101">
         <v>2</v>
@@ -6081,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>957</v>
+        <v>603</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -6089,7 +6065,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.01587301587301587</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -6107,31 +6083,31 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="K102">
-        <v>0.001913875598086124</v>
+        <v>0.003246753246753247</v>
       </c>
       <c r="L102">
         <v>2</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N102">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="O102">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="P102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>1043</v>
+        <v>614</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -6139,13 +6115,13 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.0136986301369863</v>
+        <v>0.006688963210702341</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6157,31 +6133,31 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>72</v>
+        <v>297</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c r="K103">
-        <v>0.001824817518248175</v>
+        <v>0.002808988764044944</v>
       </c>
       <c r="L103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N103">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O103">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>547</v>
+        <v>710</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -6189,13 +6165,13 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.01003344481605351</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6207,31 +6183,31 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>296</v>
+        <v>153</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="K104">
-        <v>0.001729106628242075</v>
+        <v>0.002735978112175103</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M104">
         <v>4</v>
       </c>
       <c r="N104">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O104">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>1732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -6239,49 +6215,49 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.008152173913043478</v>
+        <v>0.006463195691202872</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E105">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F105">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>365</v>
+        <v>2767</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="K105">
-        <v>0.00165016501650165</v>
+        <v>0.002100840336134454</v>
       </c>
       <c r="L105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N105">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O105">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>605</v>
+        <v>950</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -6289,13 +6265,13 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.008086253369272238</v>
+        <v>0.005390835579514825</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6307,19 +6283,19 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K106">
-        <v>0.001623376623376623</v>
+        <v>0.00181653042688465</v>
       </c>
       <c r="L106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6331,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>615</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -6339,7 +6315,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.008</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -6357,31 +6333,31 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="K107">
-        <v>0.001140250855188141</v>
+        <v>0.001743679163034002</v>
       </c>
       <c r="L107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M107">
         <v>2</v>
       </c>
       <c r="N107">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O107">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>876</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -6389,49 +6365,49 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.007692307692307693</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>129</v>
+        <v>603</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="K108">
-        <v>0.001050420168067227</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L108">
         <v>1</v>
       </c>
       <c r="M108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N108">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O108">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q108">
-        <v>951</v>
+        <v>662</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -6439,49 +6415,49 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.006666666666666667</v>
+        <v>0.003472222222222222</v>
       </c>
       <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>287</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K109">
+        <v>0.001283697047496791</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
         <v>3</v>
       </c>
-      <c r="D109">
-        <v>3</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109" t="b">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>447</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="K109">
-        <v>0.0009082652134423251</v>
-      </c>
-      <c r="L109">
-        <v>1</v>
-      </c>
-      <c r="M109">
-        <v>1</v>
-      </c>
       <c r="N109">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="O109">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q109">
-        <v>1100</v>
+        <v>778</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -6489,7 +6465,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.006211180124223602</v>
+        <v>0.002932551319648094</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6507,31 +6483,31 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="K110">
-        <v>0.000721240533717995</v>
+        <v>0.001152073732718894</v>
       </c>
       <c r="L110">
         <v>2</v>
       </c>
       <c r="M110">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N110">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="O110">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="P110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <v>2771</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -6539,49 +6515,49 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.005952380952380952</v>
+        <v>0.002735978112175103</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>167</v>
+        <v>729</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K111">
-        <v>0.0002547770700636942</v>
+        <v>0.001083032490974729</v>
       </c>
       <c r="L111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M111">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="N111">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="O111">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>3924</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -6589,59 +6565,107 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.005384063173007897</v>
+        <v>0.002724795640326975</v>
       </c>
       <c r="C112">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E112">
-        <v>0.88</v>
+        <v>0.33</v>
       </c>
       <c r="F112">
-        <v>0.12</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>2771</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>366</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K112">
+        <v>0.001048218029350105</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+      <c r="N112">
+        <v>0.67</v>
+      </c>
+      <c r="O112">
+        <v>0.33</v>
+      </c>
+      <c r="P112" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
       <c r="A113" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.005025125628140704</v>
+        <v>0.002564102564102564</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>778</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K113">
+        <v>0.0009569377990430622</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>0.5</v>
+      </c>
+      <c r="O113">
+        <v>0.5</v>
+      </c>
+      <c r="P113" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
       <c r="A114" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.003642987249544627</v>
+        <v>0.002094240837696335</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -6659,47 +6683,71 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>953</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K114">
+        <v>0.0007649158592554819</v>
+      </c>
+      <c r="L114">
+        <v>3</v>
+      </c>
+      <c r="M114">
+        <v>9</v>
+      </c>
+      <c r="N114">
+        <v>0.67</v>
+      </c>
+      <c r="O114">
+        <v>0.33</v>
+      </c>
+      <c r="P114" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.003367003367003367</v>
+        <v>0.002092050209205021</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
       <c r="A116" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.003294892915980231</v>
+        <v>0.001528662420382166</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E116">
         <v>0.67</v>
@@ -6711,267 +6759,85 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
       <c r="A117" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.003138075313807531</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
       <c r="A118" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.003125</v>
+        <v>0.001142857142857143</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E118">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="F118">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
       <c r="A119" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002560819462227913</v>
+        <v>0.0009569377990430622</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119">
         <v>2</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B120">
-        <v>0.0022271714922049</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120" t="b">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B121">
-        <v>0.001749781277340333</v>
-      </c>
-      <c r="C121">
-        <v>2</v>
-      </c>
-      <c r="D121">
-        <v>2</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121" t="b">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B122">
-        <v>0.001743679163034002</v>
-      </c>
-      <c r="C122">
-        <v>2</v>
-      </c>
-      <c r="D122">
-        <v>2</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122" t="b">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B123">
-        <v>0.001140250855188141</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123">
-        <v>2</v>
-      </c>
-      <c r="E123">
-        <v>0.5</v>
-      </c>
-      <c r="F123">
-        <v>0.5</v>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B124">
-        <v>0.0009578544061302681</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>3</v>
-      </c>
-      <c r="E124">
-        <v>0.33</v>
-      </c>
-      <c r="F124">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B125">
-        <v>0.0007639419404125286</v>
-      </c>
-      <c r="C125">
-        <v>3</v>
-      </c>
-      <c r="D125">
-        <v>4</v>
-      </c>
-      <c r="E125">
-        <v>0.75</v>
-      </c>
-      <c r="F125">
-        <v>0.25</v>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125">
-        <v>3924</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B126">
-        <v>0.0005770340450086555</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126">
-        <v>4</v>
-      </c>
-      <c r="E126">
-        <v>0.25</v>
-      </c>
-      <c r="F126">
-        <v>0.75</v>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126">
-        <v>1732</v>
+        <v>1044</v>
       </c>
     </row>
   </sheetData>
